--- a/2021-07-22-10-45-43-export_image.xlsx
+++ b/2021-07-22-10-45-43-export_image.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 800X800 Blanco Roto</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 800X800 Blanco Roto</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 800X800 Blanco</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 800X800 Pizarra</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 800X800 Cemento</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 800X800 Negro</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 800X800 Cream</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 800X800 Arena</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 800X800 Coral</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Blanco Roto</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Blanco</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Pizarra</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Cemento</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Negro</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Cream</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Arena</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Coral</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Blanco Roto 1\4 кр</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Blanco 1/4 кр</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Pizarra 1\4 кр</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Cemento 1\4 кр</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Negro 1\4 кр</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 900X900 Cream 1\4 кр</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1000X700 Blanco Roto</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1000X700 Blanco</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1000X700 Pizarra</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1000X700 Cemento</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1000X700 Negro</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1000X700 Cream</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1000X700 Arena</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1000X700 Coral</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1200X700 Blanco Roto</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1200X700 Blanco</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1200X700 Pizarra</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1200X700 Cemento</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1200X700 Negro</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1200X700 Cream</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1200X700 Arena</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1200X700 Coral</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1400X700 Blanco Roto</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1400X700 Blanco</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1400X700 Pizarra</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1400X700 Cemento</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1400X700 Negro</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1400X700 Cream</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1400X700 Arena</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1400X700 Coral</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1600X700 Blanco Roto</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1600X700 Blanco</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1600X700 Pizarra</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1600X700 Cemento</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1600X700 Negro</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1600X700 Cream</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1600X700 Arena</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1600X700 Coral</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1800X700 Blanco Roto</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1800X700 Blanco</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1800X700 Pizarra</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1800X700 Cemento</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1800X700 Negro</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1800X700 Cream</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1800X700 Arena</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Душевой поддон из материала Stonex® Roca Terran 1800X700 Coral</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
@@ -1505,2608 +1505,1299 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Opening 1000х700 белый 275793000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>275793000</t>
+          <t>276011000</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1000kh700-belyj-275793000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1200kh800-belyj-276011000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Opening 1000х700 белый 275793000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>276011000</t>
+          <t>276018000</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1200kh800-belyj-276011000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1000kh800-belyj-276018000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Opening 1200х800 белый 276011000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>276011000</t>
+          <t>276019000</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1200kh800-belyj-276011000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-900kh750-belyj-276019000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Opening 1200х800 белый 276011000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>276018000</t>
+          <t>276025000</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1000kh800-belyj-276018000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1000kh700-belyj-276025000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1000х800 белый 276018000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>276018000</t>
+          <t>276026000</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1000kh800-belyj-276018000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-900kh700-belyj-276026000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1000х800 белый 276018000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>276019000</t>
+          <t>276027000</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-900kh750-belyj-276019000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1200kh700-belyj-276027000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 900х750 белый 276019000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>276019000</t>
+          <t>276029000</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-900kh750-belyj-276019000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1400kh700-belyj-276029000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 900х750 белый 276019000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>276025000</t>
+          <t>276032000</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1000kh700-belyj-276025000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1700kh700-belyj-276032000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1000х700 белый 276025000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>276025000</t>
+          <t>276035000</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1000kh700-belyj-276025000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1700kh750-belyj-276035000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1000х700 белый 276025000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>276026000</t>
+          <t>276036000</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-900kh700-belyj-276026000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1400kh750-belyj-276036000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 900х700 белый 276026000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>276026000</t>
+          <t>276037000</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-900kh700-belyj-276026000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1400kh750-belyj-276037000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 900х700 белый 276026000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>276027000</t>
+          <t>276040000</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1200kh700-belyj-276027000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1000kh800-belyj-276040000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1200х700 белый 276027000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>276027000</t>
+          <t>276041000</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1200kh700-belyj-276027000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1200kh700-belyj-276041000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1200х700 белый 276027000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>276029000</t>
+          <t>276042000</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1400kh700-belyj-276029000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1400kh700-belyj-276042000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1400х700 белый 276029000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>276029000</t>
+          <t>276075000</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1400kh700-belyj-276029000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-1400kh800-belyj-276075000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1400х700 белый 276029000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>276032000</t>
+          <t>276076000</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1700kh700-belyj-276032000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-1200kh800-belyj-276076000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1700х700 белый 276032000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>276032000</t>
+          <t>276077000</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1700kh700-belyj-276032000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-1000kh1000-belyj-276077000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1700х700 белый 276032000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>276035000</t>
+          <t>276078000</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1700kh750-belyj-276035000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-900kh900-belyj-276078000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1700х750 белый 276035000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>276035000</t>
+          <t>276079000</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1700kh750-belyj-276035000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-750kh750-belyj-276079000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1700х750 белый 276035000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>276036000</t>
+          <t>276080000</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1400kh750-belyj-276036000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-800kh800-belyj-276080000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1400х750 белый 276036000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>276036000</t>
+          <t>276081000</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1400kh750-belyj-276036000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-900kh900-belyj-276081000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1400х750 белый 276036000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>276037000</t>
+          <t>276083000</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1400kh750-belyj-276037000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-750kh650-belyj-276083000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1400х750 белый 276037000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>276037000</t>
+          <t>276084000</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-daiquiri-1400kh750-belyj-276037000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-800kh800-belyj-276084000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Daiquiri 1400х750 белый 276037000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>276040000</t>
+          <t>276085000</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1000kh800-belyj-276040000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-900kh900-belyj-276085000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Opening 1000х800 белый 276040000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>276040000</t>
+          <t>276087000</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1000kh800-belyj-276040000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-900kh750-belyj-276087000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Opening 1000х800 белый 276040000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>276041000</t>
+          <t>276088000</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1200kh700-belyj-276041000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-1000kh700-belyj-276088000-izdelie.jpg</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Opening 1200х700 белый 276041000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>276041000</t>
+          <t>3740L9660</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1200kh700-belyj-276041000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000kh700x35-kofejnyj-3740l9660-izdelie.jpg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Opening 1200х700 белый 276041000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>276042000</t>
+          <t>3740L9650</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1400kh700-belyj-276042000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000kh700x35-bezhevyj-3740l9650-izdelie.jpg</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Opening 1400х700 белый 276042000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>276042000</t>
+          <t>3740L9640</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-opening-1400kh700-belyj-276042000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000kh700x35-oniks-3740l9640-izdelie.jpg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Opening 1400х700 белый 276042000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>276075000</t>
+          <t>3740L9630</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-1400kh800-belyj-276075000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000x700x35-zhemchug-3740l9630-izdelie.jpg</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Hall 1400х800 белый 276075000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>276075000</t>
+          <t>3740L9620</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-1400kh800-belyj-276075000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000x700x35-belyj-matovyj-3740l9620-izdelie.jpg</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Hall 1400х800 белый 276075000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>276076000</t>
+          <t>3740L8660</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-1200kh800-belyj-276076000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000x800x35-kofejnyj-3740l8660-izdelie.jpg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Hall 1200х800 белый 276076000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>276076000</t>
+          <t>3740L8650</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-1200kh800-belyj-276076000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000x800x35-bezhevyj-3740l8650-izdelie.jpg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Hall 1200х800 белый 276076000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>276077000</t>
+          <t>3740L8640</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-1000kh1000-belyj-276077000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1000x800x35-oniks-3740l8640-izdelie.jpg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Hall 1000х1000 белый 276077000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>276077000</t>
+          <t>3740L8630</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-1000kh1000-belyj-276077000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1000x800x35-zhemchug-3740l8630-izdelie.jpg</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Hall 1000х1000 белый 276077000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>276078000</t>
+          <t>3740L8620</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-900kh900-belyj-276078000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1000x800x35-belyj-matovyj-3740l8620-izdelie.jpg</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Hall 900х900 белый 276078000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>276078000</t>
+          <t>3740L7660</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-hall-900kh900-belyj-276078000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-kofejnyj-3740l7660-izdelie.jpg</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Hall 900х900 белый 276078000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>276079000</t>
+          <t>3740L7650</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-750kh750-belyj-276079000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-bezhevyj-3740l7650-izdelie.jpg</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 750х750 белый 276079000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>276079000</t>
+          <t>3740L7640</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-750kh750-belyj-276079000-shema.png</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-oniks-3740l7640-izdelie.jpg</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 750х750 белый 276079000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>276080000</t>
+          <t>3740L7630</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-800kh800-belyj-276080000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-zhemchug-3740l7630-izdelie.jpg</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 800х800 белый 276080000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>276080000</t>
+          <t>3740L7620</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-800kh800-belyj-276080000-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-belyj-matovyj-3740l7620-izdelie.jpg</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 800х800 белый 276080000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>276081000</t>
+          <t>3740L6660</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-900kh900-belyj-276081000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-kofejnyj-3740l6660-izdelie.jpg</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 900х900 белый 276081000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>276081000</t>
+          <t>3740L6650</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-900kh900-belyj-276081000-shema.png</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-bezhevyj-3740l6650-izdelie.jpg</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 900х900 белый 276081000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>276083000</t>
+          <t>3740L6640</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-750kh650-belyj-276083000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-oniks-3740l6640-izdelie.jpg</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 750х750 белый 276083000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>276083000</t>
+          <t>3740L6630</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-750kh650-belyj-276083000-shema.png</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-zhemchug-3740l6630-izdelie.jpg</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 750х750 белый 276083000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>276084000</t>
+          <t>3740L6620</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-800kh800-belyj-276084000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-belyj-matovyj-3740l6620-izdelie.jpg</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 800х800 белый 276084000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>276084000</t>
+          <t>3740L5660</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-800kh800-belyj-276084000-shema.png</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-kofejnyj-3740l5660-izdelie.jpg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 800х800 белый 276084000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>276085000</t>
+          <t>3740L5650</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-900kh900-belyj-276085000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-bezhevyj-3740l5650-izdelie.jpg</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 900х900 белый 276085000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>276085000</t>
+          <t>3740L5640</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-900kh900-belyj-276085000-shema.png</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-oniks-3740l5640-izdelie.jpg</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 900х900 белый 276085000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>276087000</t>
+          <t>3740L5630</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-900kh750-belyj-276087000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-zhemchug-3740l5630-izdelie.jpg</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 900х750 белый 276087000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>276087000</t>
+          <t>3740L5620</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-900kh750-belyj-276087000-shema.png</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-belyj-matovyj-3740l5620-izdelie.jpg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 900х750 белый 276087000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>276088000</t>
+          <t>3740L4660</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-1000kh700-belyj-276088000-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-kofejnyj-3740l4660-izdelie.jpg</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 1000х700 белый 276088000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>276088000</t>
+          <t>3740L4650</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/24/dushevoj-poddon-roca-easy-1000kh700-belyj-276088000-shema.png</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-bezhevyj-3740l4650-izdelie.jpg</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Easy 1000х700 белый 276088000</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3740L9660</t>
+          <t>3740L4640</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000kh700x35-kofejnyj-3740l9660-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-oniks-3740l4640-izdelie.jpg</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000х700x35 кофейный 3740L9660</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3740L9660</t>
+          <t>3740L4630</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000kh700x35-kofejnyj-3740l9660-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-zhemchug-3740l4630-izdelie.jpg</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000х700x35 кофейный 3740L9660</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3740L9650</t>
+          <t>3740L4620</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000kh700x35-bezhevyj-3740l9650-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-belyj-matovyj-3740l4620-izdelie.jpg</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000х700x35 бежевый 3740L9650</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3740L9650</t>
+          <t>3740L3660</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000kh700x35-bezhevyj-3740l9650-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-kofejnyj-3740l3660-izdelie.jpg</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000х700x35 бежевый 3740L9650</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3740L9640</t>
+          <t>3740L3650</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000kh700x35-oniks-3740l9640-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-bezhevyj-3740l3650-izdelie.jpg</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000х700x35 оникс 3740L9640</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3740L9640</t>
+          <t>3740L3640</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000kh700x35-oniks-3740l9640-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-oniks-3740l3640-izdelie.jpg</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000х700x35 оникс 3740L9640</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3740L9630</t>
+          <t>3740L3630</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000x700x35-zhemchug-3740l9630-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-zhemchug-3740l3630-izdelie.jpg</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x700x35 жемчуг 3740L9630</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3740L9630</t>
+          <t>3740L3620</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000x700x35-zhemchug-3740l9630-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-belyj-matovyj-3740l3620-izdelie.jpg</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x700x35 жемчуг 3740L9630</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3740L9620</t>
+          <t>3740L2660</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000x700x35-belyj-matovyj-3740l9620-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-kofejnyj-3740l2660-izdelie.jpg</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x700x35 белый матовый 3740L9620</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3740L9620</t>
+          <t>3740L2650</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000x700x35-belyj-matovyj-3740l9620-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-bezhevyj-3740l2650-izdelie.jpg</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x700x35 белый матовый 3740L9620</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3740L8660</t>
+          <t>3740L2640</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000x800x35-kofejnyj-3740l8660-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-oniks-3740l2640-izdelie.jpg</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x800x35 кофейный 3740L8660</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3740L8660</t>
+          <t>3740L2630</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000x800x35-kofejnyj-3740l8660-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-zhemchug-3740l2630-izdelie.jpg</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x800x35 кофейный 3740L8660</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3740L8650</t>
+          <t>3740L2620</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/44/dushevoj-poddon-roca-cratos-1000x800x35-bezhevyj-3740l8650-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-belyj-matovyj-3740l2620-izdelie.jpg</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x800x35 бежевый 3740L8650</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3740L8650</t>
+          <t>3740L1660</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1000x800x35-bezhevyj-3740l8650-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-kofejnyj-3740l1660-izdelie.jpg</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x800x35 бежевый 3740L8650</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3740L8640</t>
+          <t>3740L1650</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1000x800x35-oniks-3740l8640-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-bezhevyj-3740l1650-izdelie.jpg</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x800x35 оникс 3740L8640</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3740L8640</t>
+          <t>3740L1640</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1000x800x35-oniks-3740l8640-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-oniks-3740l1640-izdelie.jpg</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x800x35 оникс 3740L8640</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3740L8630</t>
+          <t>3740L1630</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1000x800x35-zhemchug-3740l8630-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-zhemchug-3740l1630-izdelie.jpg</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x800x35 жемчуг 3740L8630</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3740L8630</t>
+          <t>3740L1620</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1000x800x35-zhemchug-3740l8630-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-belyj-matovyj-3740l1620-izdelie.jpg</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x800x35 жемчуг 3740L8630</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3740L8620</t>
+          <t>3740L0660</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1000x800x35-belyj-matovyj-3740l8620-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-kofejnyj-3740l0660-izdelie.jpg</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x800x35 белый матовый 3740L8620</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3740L8620</t>
+          <t>3740L0650</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1000x800x35-belyj-matovyj-3740l8620-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-bezhevyj-3740l0650-izdelie.jpg</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1000x800x35 белый матовый 3740L8620</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3740L7660</t>
+          <t>3740L0640</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-kofejnyj-3740l7660-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-oniks-3740l0640-izdelie.jpg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1200x700x35 кофейный 3740L7660</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3740L7660</t>
+          <t>3740L0630</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-kofejnyj-3740l7660-shema.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-zhemchug-3740l0630-izdelie.jpg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1200x700x35 кофейный 3740L7660</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3740L7650</t>
+          <t>3740L0620</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-bezhevyj-3740l7650-izdelie.jpg</t>
+          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-belyj-matovyj-3740l0620-izdelie.jpg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Душевой поддон Roca Cratos 1200x700x35 бежевый 3740L7650</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>3740L7650</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-bezhevyj-3740l7650-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x700x35 бежевый 3740L7650</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>3740L7640</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-oniks-3740l7640-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x700x35 оникс 3740L7640</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>3740L7640</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-oniks-3740l7640-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x700x35 оникс 3740L7640</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>3740L7630</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-zhemchug-3740l7630-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x700x35 жемчуг 3740L7630</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>3740L7630</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-zhemchug-3740l7630-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x700x35 жемчуг 3740L7630</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>3740L7620</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-belyj-matovyj-3740l7620-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x700x35 белый матовый 3740L7620</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>3740L7620</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x700x35-belyj-matovyj-3740l7620-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x700x35 белый матовый 3740L7620</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>3740L6660</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-kofejnyj-3740l6660-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x800x35 кофейный 3740L6660</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>3740L6660</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-kofejnyj-3740l6660-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x800x35 кофейный 3740L6660</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>3740L6650</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-bezhevyj-3740l6650-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x800x35 бежевый 3740L6650</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>3740L6650</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-bezhevyj-3740l6650-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x800x35 бежевый 3740L6650</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>3740L6640</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-oniks-3740l6640-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x800x35 оникс 3740L6640</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>3740L6640</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-oniks-3740l6640-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x800x35 оникс 3740L6640</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>3740L6630</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-zhemchug-3740l6630-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x800x35 жемчуг 3740L6630</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>3740L6630</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-zhemchug-3740l6630-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x800x35 жемчуг 3740L6630</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>3740L6620</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-belyj-matovyj-3740l6620-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x800x35 белый матовый 3740L6620</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>3740L6620</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1200x800x35-belyj-matovyj-3740l6620-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1200x800x35 белый матовый 3740L6620</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>3740L5660</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-kofejnyj-3740l5660-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x700x35 кофейный 3740L5660</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>3740L5660</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-kofejnyj-3740l5660-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x700x35 кофейный 3740L5660</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>3740L5650</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-bezhevyj-3740l5650-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x700x35 бежевый 3740L5650</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>3740L5650</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-bezhevyj-3740l5650-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x700x35 бежевый 3740L5650</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>3740L5640</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-oniks-3740l5640-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x700x35 оникс 3740L5640</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>3740L5640</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-oniks-3740l5640-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x700x35 оникс 3740L5640</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>3740L5630</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-zhemchug-3740l5630-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x700x35 жемчуг 3740L5630</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>3740L5630</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-zhemchug-3740l5630-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x700x35 жемчуг 3740L5630</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>3740L5620</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-belyj-matovyj-3740l5620-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x700x35 белый матовый 3740L5620</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>3740L5620</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x700x35-belyj-matovyj-3740l5620-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x700x35 белый матовый 3740L5620</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>3740L4660</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-kofejnyj-3740l4660-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x800x35 кофейный 3740L4660</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>3740L4660</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-kofejnyj-3740l4660-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x800x35 кофейный 3740L4660</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>3740L4650</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-bezhevyj-3740l4650-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x800x35 бежевый 3740L4650</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>3740L4650</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-bezhevyj-3740l4650-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x800x35 бежевый 3740L4650</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>3740L4640</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-oniks-3740l4640-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x800x35 оникс 3740L4640</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>3740L4640</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-oniks-3740l4640-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x800x35 оникс 3740L4640</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>3740L4630</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-zhemchug-3740l4630-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x800x35 жемчуг 3740L4630</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>3740L4630</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-zhemchug-3740l4630-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x800x35 жемчуг 3740L4630</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>3740L4620</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-belyj-matovyj-3740l4620-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x800x35 белый матовый 3740L4620</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>3740L4620</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1400x800x35-belyj-matovyj-3740l4620-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1400x800x35 белый матовый 3740L4620</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>3740L3660</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-kofejnyj-3740l3660-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x700x35 кофейный 3740L3660</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>3740L3660</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-kofejnyj-3740l3660-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x700x35 кофейный 3740L3660</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>3740L3650</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-bezhevyj-3740l3650-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x700x35 бежевый 3740L3650</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>3740L3650</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-bezhevyj-3740l3650-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x700x35 бежевый 3740L3650</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>3740L3640</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-oniks-3740l3640-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x700x35 оникс 3740L3640</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>3740L3640</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-oniks-3740l3640-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x700x35 оникс 3740L3640</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>3740L3630</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-zhemchug-3740l3630-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x700x35 жемчуг 3740L3630</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>3740L3630</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-zhemchug-3740l3630-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x700x35 жемчуг 3740L3630</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>3740L3620</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-belyj-matovyj-3740l3620-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x700x35 белый матовый 3740L3620</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>3740L3620</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x700x35-belyj-matovyj-3740l3620-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x700x35 белый матовый 3740L3620</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>3740L2660</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-kofejnyj-3740l2660-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x800x35 кофейный 3740L2660</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>3740L2660</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-kofejnyj-3740l2660-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x800x35 кофейный 3740L2660</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>3740L2650</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-bezhevyj-3740l2650-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x800x35 бежевый 3740L2650</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>3740L2650</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-bezhevyj-3740l2650-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x800x35 бежевый 3740L2650</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>3740L2640</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-oniks-3740l2640-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x800x35 оникс 3740L2640</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>3740L2640</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-oniks-3740l2640-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x800x35 оникс 3740L2640</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>3740L2630</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-zhemchug-3740l2630-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x800x35 жемчуг 3740L2630</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>3740L2630</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-zhemchug-3740l2630-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x800x35 жемчуг 3740L2630</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>3740L2620</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-belyj-matovyj-3740l2620-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x800x35 белый матовый 3740L2620</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>3740L2620</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1600x800x35-belyj-matovyj-3740l2620-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1600x800x35 белый матовый 3740L2620</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>3740L1660</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-kofejnyj-3740l1660-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x700x35 кофейный 3740L1660</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>3740L1660</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-kofejnyj-3740l1660-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x700x35 кофейный 3740L1660</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>3740L1650</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-bezhevyj-3740l1650-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x700x35 бежевый 3740L1650</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>3740L1650</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-bezhevyj-3740l1650-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x700x35 бежевый 3740L1650</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>3740L1640</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-oniks-3740l1640-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x700x35 оникс 3740L1640</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>3740L1640</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-oniks-3740l1640-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x700x35 оникс 3740L1640</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>3740L1630</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-zhemchug-3740l1630-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x700x35 жемчуг 3740L1630</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>3740L1630</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-zhemchug-3740l1630-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x700x35 жемчуг 3740L1630</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>3740L1620</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-belyj-matovyj-3740l1620-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x700x35 белый матовый 3740L1620</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>3740L1620</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x700x35-belyj-matovyj-3740l1620-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x700x35 белый матовый 3740L1620</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>3740L0660</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-kofejnyj-3740l0660-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x800x35 кофейный 3740L0660</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>3740L0660</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-kofejnyj-3740l0660-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x800x35 кофейный 3740L0660</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>3740L0650</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-bezhevyj-3740l0650-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x800x35 бежевый 3740L0650</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>3740L0650</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-bezhevyj-3740l0650-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x800x35 бежевый 3740L0650</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>3740L0640</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-oniks-3740l0640-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x800x35 оникс 3740L0640</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>3740L0640</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-oniks-3740l0640-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x800x35 оникс 3740L0640</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>3740L0630</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-zhemchug-3740l0630-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x800x35 жемчуг 3740L0630</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>3740L0630</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-zhemchug-3740l0630-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x800x35 жемчуг 3740L0630</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>3740L0620</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-belyj-matovyj-3740l0620-izdelie.jpg</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x800x35 белый матовый 3740L0620</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>3740L0620</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>rocagroup.ru/upload/catalog/item/45/dushevoj-poddon-roca-cratos-1800x800x35-belyj-matovyj-3740l0620-shema.jpg</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Душевой поддон Roca Cratos 1800x800x35 белый матовый 3740L0620</t>
+          <t>картон</t>
         </is>
       </c>
     </row>
